--- a/results/tables/final_tables_shared.xlsx
+++ b/results/tables/final_tables_shared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AE4A1A-9F09-49F5-8FF8-495B1079FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA57130-B366-46C1-A390-E46B121C4210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
@@ -79,12 +79,13 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5FB4546E-B91B-4CDE-868E-4F97C041A2D6}</author>
-    <author>tc={D6BE0F47-99D2-4C68-A48E-D56E8CAB5FF3}</author>
-    <author>tc={134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}</author>
+    <author>tc={5DEE9435-2B77-4A4C-91E8-088909689442}</author>
+    <author>tc={EEA83CD9-5F58-485B-B1C6-6EFD4061C824}</author>
+    <author>tc={CF6DC49C-995C-45EC-802D-7BBC365C2ECA}</author>
+    <author>tc={952EBC98-9E31-4A2D-8A18-2509ED151CBE}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5FB4546E-B91B-4CDE-868E-4F97C041A2D6}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5DEE9435-2B77-4A4C-91E8-088909689442}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +93,7 @@
     I have to correct this. I just realized a variable had the wrong sign</t>
       </text>
     </comment>
-    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{D6BE0F47-99D2-4C68-A48E-D56E8CAB5FF3}">
+    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{EEA83CD9-5F58-485B-B1C6-6EFD4061C824}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +102,16 @@
 </t>
       </text>
     </comment>
-    <comment ref="D17" authorId="2" shapeId="0" xr:uid="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
+    <comment ref="A19" authorId="2" shapeId="0" xr:uid="{CF6DC49C-995C-45EC-802D-7BBC365C2ECA}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In production. Panicking a little bit
+</t>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="3" shapeId="0" xr:uid="{952EBC98-9E31-4A2D-8A18-2509ED151CBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
   <si>
     <t>Occupation fixed-effects</t>
   </si>
@@ -1062,14 +1072,18 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-05-04T14:24:46.91" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{5FB4546E-B91B-4CDE-868E-4F97C041A2D6}" done="1">
+  <threadedComment ref="A1" dT="2023-05-04T14:24:46.91" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{5DEE9435-2B77-4A4C-91E8-088909689442}" done="1">
     <text>I have to correct this. I just realized a variable had the wrong sign</text>
   </threadedComment>
-  <threadedComment ref="A10" dT="2023-05-05T16:03:41.57" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{D6BE0F47-99D2-4C68-A48E-D56E8CAB5FF3}">
+  <threadedComment ref="A10" dT="2023-05-05T16:03:41.57" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{EEA83CD9-5F58-485B-B1C6-6EFD4061C824}">
     <text xml:space="preserve">In production. Panicking a little bit
 </text>
   </threadedComment>
-  <threadedComment ref="D17" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{134ADD85-417C-4FE4-8D98-C9A6AB9E32ED}">
+  <threadedComment ref="A19" dT="2023-05-05T16:03:41.57" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{CF6DC49C-995C-45EC-802D-7BBC365C2ECA}">
+    <text xml:space="preserve">In production. Panicking a little bit
+</text>
+  </threadedComment>
+  <threadedComment ref="D26" dT="2023-05-04T15:19:28.63" personId="{F8FA700A-AE49-4429-93AD-D984B9D4E946}" id="{952EBC98-9E31-4A2D-8A18-2509ED151CBE}">
     <text>Should I winsorize it?</text>
   </threadedComment>
 </ThreadedComments>
@@ -2465,10 +2479,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,7 +2499,7 @@
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="37"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G2" s="45" t="s">
@@ -2632,6 +2646,7 @@
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G11" s="45" t="s">
@@ -2670,87 +2685,244 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="20" t="e">
+      <c r="B13" s="9">
+        <v>0.27885169368546697</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.30320567448449298</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.233826029968141</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.91303831241435396</v>
+      </c>
+      <c r="G13" s="20">
         <f t="shared" ref="G13:I15" si="2">+C13/$B13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="20" t="e">
+        <v>1.087336678781289</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="20" t="e">
+        <v>0.83853186214420838</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.2742792426580092</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="20" t="e">
+      <c r="B14" s="9">
+        <v>0.27885169368546697</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.188967867153742</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.79801410460793898</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.30461932615272902</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="20" t="e">
+        <v>0.67766440524793747</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="20" t="e">
+        <v>2.8617868303431049</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0924062254265052</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="G15" s="20" t="e">
+      <c r="B15" s="23">
+        <v>0.27885169368546697</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.82120048408405799</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.190953511290265</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.25665144370672199</v>
+      </c>
+      <c r="G15" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="20" t="e">
+        <v>2.9449363323944437</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="20" t="e">
+        <v>0.68478519447564323</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.92038689209545943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
+  <conditionalFormatting sqref="G13:G15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
